--- a/src/main/java/com/example/InternJava/MyExcel.xlsx
+++ b/src/main/java/com/example/InternJava/MyExcel.xlsx
@@ -12,36 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>Move disk 1 from A to B</t>
-  </si>
-  <si>
-    <t>Move disk 2 from A to C</t>
-  </si>
-  <si>
-    <t>Move disk 1 from B to C</t>
-  </si>
-  <si>
-    <t>Move disk 3 from A to B</t>
-  </si>
-  <si>
-    <t>Move disk 1 from C to A</t>
-  </si>
-  <si>
-    <t>Move disk 2 from C to B</t>
-  </si>
-  <si>
-    <t>Move disk 4 from A to C</t>
-  </si>
-  <si>
-    <t>Move disk 2 from B to A</t>
-  </si>
-  <si>
-    <t>Move disk 3 from B to C</t>
-  </si>
-  <si>
-    <t>Tổng số đĩa : 4, tổng thời gian chạy(mili sec)3958 ms, tổng số bước :15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+  <si>
+    <t>Move disk 1 from A to C</t>
+  </si>
+  <si>
+    <t>Move disk 2 from A to B</t>
+  </si>
+  <si>
+    <t>Move disk 1 from C to B</t>
+  </si>
+  <si>
+    <t>Move disk 3 from A to C</t>
+  </si>
+  <si>
+    <t>Move disk 1 from B to A</t>
+  </si>
+  <si>
+    <t>Move disk 2 from B to C</t>
+  </si>
+  <si>
+    <t>Move disk 4 from A to B</t>
+  </si>
+  <si>
+    <t>Move disk 2 from C to A</t>
+  </si>
+  <si>
+    <t>Move disk 3 from C to B</t>
+  </si>
+  <si>
+    <t>Move disk 5 from A to C</t>
+  </si>
+  <si>
+    <t>Move disk 3 from B to A</t>
+  </si>
+  <si>
+    <t>Move disk 4 from B to C</t>
+  </si>
+  <si>
+    <t>Tổng số đĩa : 5, tổng thời gian chạy(mili sec)3405 ms, tổng số bước :31</t>
   </si>
   <si>
     <t>Bước thứ</t>
@@ -92,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,15 +109,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -229,6 +238,134 @@
       </c>
       <c r="B17" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
